--- a/overall_summary.xlsx
+++ b/overall_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anumafzal/PycharmProjects/DAPred/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4809D7-9D76-BA4D-9A58-8A2CCBC1BBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B73962-12B3-3E48-BC26-CC3CB6475020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22620" yWindow="-28800" windowWidth="34280" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - overall_summary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
   <si>
     <t>lay_summarization</t>
   </si>
@@ -272,13 +272,46 @@
   </si>
   <si>
     <t>4.5</t>
+  </si>
+  <si>
+    <t>billsum</t>
+  </si>
+  <si>
+    <t>Proceed to summarize the following text. </t>
+  </si>
+  <si>
+    <t> TEXT : {} </t>
+  </si>
+  <si>
+    <t> Summary: </t>
+  </si>
+  <si>
+    <t>0.875503602027893</t>
+  </si>
+  <si>
+    <t>0.4867178019865502</t>
+  </si>
+  <si>
+    <t>0.31037662143635486</t>
+  </si>
+  <si>
+    <t>25.59204</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.17</t>
+  </si>
+  <si>
+    <t>4.69</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -289,6 +322,25 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -311,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -424,13 +476,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -471,6 +532,27 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1633,15 +1715,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O5" zoomScale="200" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="51" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
@@ -2231,7 +2313,154 @@
         <v>34</v>
       </c>
     </row>
+    <row r="9" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="18">
+        <v>4096</v>
+      </c>
+      <c r="K9" s="18">
+        <v>100</v>
+      </c>
+      <c r="L9" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="U9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="V9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+    </row>
+    <row r="11" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="15"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+    </row>
   </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="W9:W11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="V9:V11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
